--- a/data/trans_orig/P1420-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1642</v>
+        <v>1849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10999</v>
+        <v>11192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00705729073435413</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002334696915300265</v>
+        <v>0.002627774707690668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01563484855793627</v>
+        <v>0.01590952463432605</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -763,19 +763,19 @@
         <v>9419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4277</v>
+        <v>4259</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17405</v>
+        <v>17105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01351203714092232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006135952260874667</v>
+        <v>0.006109513256281501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02496996448568572</v>
+        <v>0.02453865259467642</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -784,19 +784,19 @@
         <v>14383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8055</v>
+        <v>8270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23116</v>
+        <v>24278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01026987196211507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005751714920571499</v>
+        <v>0.005904764537468429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01650501866911474</v>
+        <v>0.01733528640957258</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>698504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>692470</v>
+        <v>692277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>701827</v>
+        <v>701620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9929427092656459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9843651514420638</v>
+        <v>0.984090475365674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976653030846998</v>
+        <v>0.9973722252923093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>641</v>
@@ -834,19 +834,19 @@
         <v>687631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679645</v>
+        <v>679945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>692773</v>
+        <v>692791</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9864879628590777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9750300355143133</v>
+        <v>0.9754613474053236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938640477391253</v>
+        <v>0.9938904867437185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1310</v>
@@ -855,19 +855,19 @@
         <v>1386136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1377403</v>
+        <v>1376241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1392464</v>
+        <v>1392249</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.989730128037885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9834949813308853</v>
+        <v>0.9826647135904272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9942482850794284</v>
+        <v>0.9940952354625315</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>13121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6751</v>
+        <v>6703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22752</v>
+        <v>22005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01288971118278914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006631746317732531</v>
+        <v>0.00658522897727618</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02235073223413787</v>
+        <v>0.02161704826677346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -980,19 +980,19 @@
         <v>15052</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8313</v>
+        <v>8645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24444</v>
+        <v>24288</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01462826835526214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008079015730297335</v>
+        <v>0.008402063091291139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02375601062918548</v>
+        <v>0.0236039760385071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1001,19 +1001,19 @@
         <v>28173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18769</v>
+        <v>17950</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41105</v>
+        <v>39612</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01376367234697629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009169287193583524</v>
+        <v>0.008769100990732146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02008146279816769</v>
+        <v>0.01935219929678811</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1004826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995195</v>
+        <v>995942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011196</v>
+        <v>1011244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9871102888172109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9776492677658629</v>
+        <v>0.9783829517332265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9933682536822676</v>
+        <v>0.9934147710227238</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>924</v>
@@ -1051,19 +1051,19 @@
         <v>1013921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004529</v>
+        <v>1004685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020660</v>
+        <v>1020328</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9853717316447379</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9762439893708145</v>
+        <v>0.9763960239614915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9919209842697027</v>
+        <v>0.9915979369087088</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1848</v>
@@ -1072,19 +1072,19 @@
         <v>2018748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2005816</v>
+        <v>2007309</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2028152</v>
+        <v>2028971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9862363276530237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9799185372018323</v>
+        <v>0.9806478007032118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9908307128064164</v>
+        <v>0.9912308990092679</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>4077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9419</v>
+        <v>10261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005381110987279813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001373796533605473</v>
+        <v>0.001383454616372567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01243225389150828</v>
+        <v>0.01354342027441525</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1197,19 +1197,19 @@
         <v>12901</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6591</v>
+        <v>6726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21307</v>
+        <v>21084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01660025452610618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008480645039134801</v>
+        <v>0.008654473881380872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02741634896424842</v>
+        <v>0.02712969111531765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1218,19 +1218,19 @@
         <v>16978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9957</v>
+        <v>10377</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26524</v>
+        <v>26409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01106213910353415</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0064872291679464</v>
+        <v>0.006761162240332947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01728204015552844</v>
+        <v>0.01720670536060877</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>753546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748204</v>
+        <v>747362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756582</v>
+        <v>756575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9946188890127202</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9875677461084914</v>
+        <v>0.9864565797255848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986262034663945</v>
+        <v>0.9986165453836274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -1268,19 +1268,19 @@
         <v>764273</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755867</v>
+        <v>756090</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770583</v>
+        <v>770448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9833997454738939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9725836510357515</v>
+        <v>0.9728703088846823</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9915193549608652</v>
+        <v>0.9913455261186191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1378</v>
@@ -1289,19 +1289,19 @@
         <v>1517819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1508273</v>
+        <v>1508388</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1524840</v>
+        <v>1524420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9889378608964658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9827179598444715</v>
+        <v>0.9827932946393911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935127708320536</v>
+        <v>0.993238837759667</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4844</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10676</v>
+        <v>10749</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005111615462059398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001966660541517546</v>
+        <v>0.001963834706276936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01126494250204983</v>
+        <v>0.01134213916284176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1414,19 +1414,19 @@
         <v>18409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10690</v>
+        <v>11869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28599</v>
+        <v>28559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01750047224549785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01016276964138052</v>
+        <v>0.0112833387425732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02718808034688196</v>
+        <v>0.02715005711257164</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1435,19 +1435,19 @@
         <v>23253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15440</v>
+        <v>15235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34984</v>
+        <v>34070</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01162871277148879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007721519459685389</v>
+        <v>0.007619112350474471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01749497389000937</v>
+        <v>0.01703822997039734</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>942895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937063</v>
+        <v>936990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945875</v>
+        <v>945878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9948883845379406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9887350574979502</v>
+        <v>0.9886578608371582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980333394584825</v>
+        <v>0.9980361652937231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>985</v>
@@ -1485,19 +1485,19 @@
         <v>1033492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1023302</v>
+        <v>1023342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1041211</v>
+        <v>1040032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9824995277545021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9728119196531181</v>
+        <v>0.9728499428874287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9898372303586195</v>
+        <v>0.9887166612574269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1890</v>
@@ -1506,19 +1506,19 @@
         <v>1976387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1964656</v>
+        <v>1965570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1984200</v>
+        <v>1984405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9883712872285112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9825050261099908</v>
+        <v>0.9829617700296026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992278480540315</v>
+        <v>0.9923808876495255</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>27007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18067</v>
+        <v>18219</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38387</v>
+        <v>39654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007881151849821333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005272408801831964</v>
+        <v>0.005316746444766098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01120210988504778</v>
+        <v>0.01157177406176131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1631,19 +1631,19 @@
         <v>55781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42811</v>
+        <v>40799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72024</v>
+        <v>71203</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01569034349127566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01204204885329174</v>
+        <v>0.01147612679015803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02025943624726361</v>
+        <v>0.02002852258497674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1652,19 +1652,19 @@
         <v>82788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64433</v>
+        <v>67123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101890</v>
+        <v>103143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01185751004575172</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009228602456589909</v>
+        <v>0.009613821213322469</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01459355123988732</v>
+        <v>0.01477293309665497</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3399772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3388392</v>
+        <v>3387125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3408712</v>
+        <v>3408560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9921188481501787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9887978901149522</v>
+        <v>0.9884282259382381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9947275911981682</v>
+        <v>0.9946832535552338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3243</v>
@@ -1702,19 +1702,19 @@
         <v>3499317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3483074</v>
+        <v>3483895</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3512287</v>
+        <v>3514299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9843096565087244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9797405637527363</v>
+        <v>0.9799714774150232</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9879579511467083</v>
+        <v>0.9885238732098419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6426</v>
@@ -1723,19 +1723,19 @@
         <v>6899089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6879987</v>
+        <v>6878734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6917444</v>
+        <v>6914754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9881424899542482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854064487601126</v>
+        <v>0.9852270669033448</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.99077139754341</v>
+        <v>0.9903861787866775</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>4258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10840</v>
+        <v>10711</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006309925599847872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001581895277855949</v>
+        <v>0.001684995281263966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0160635296747715</v>
+        <v>0.01587224412940968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2088,19 +2088,19 @@
         <v>4125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>971</v>
+        <v>1184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10271</v>
+        <v>9571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006130010589073797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00144330878359034</v>
+        <v>0.001759123796775951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01526451719876483</v>
+        <v>0.01422515324197722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2109,19 +2109,19 @@
         <v>8382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4015</v>
+        <v>4040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16333</v>
+        <v>15975</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006220098995127547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002979629714990692</v>
+        <v>0.002997582878260612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01211936951574416</v>
+        <v>0.01185415917441847</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>670542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>663960</v>
+        <v>664089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673733</v>
+        <v>673663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9936900744001521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9839364703252285</v>
+        <v>0.9841277558705904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.998418104722144</v>
+        <v>0.9983150047187361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -2159,19 +2159,19 @@
         <v>668714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>662568</v>
+        <v>663268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671868</v>
+        <v>671655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9938699894109262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9847354828012351</v>
+        <v>0.9857748467580244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9985566912164097</v>
+        <v>0.9982408762032241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1310</v>
@@ -2180,19 +2180,19 @@
         <v>1339257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1331306</v>
+        <v>1331664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1343624</v>
+        <v>1343599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9937799010048725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9878806304842559</v>
+        <v>0.9881458408255812</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970203702850093</v>
+        <v>0.9970024171217393</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>5647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1935</v>
+        <v>1952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12212</v>
+        <v>11668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005522718079558432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001892468906126848</v>
+        <v>0.001909027636839371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01194413128144723</v>
+        <v>0.01141242871454283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2305,19 +2305,19 @@
         <v>19879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12472</v>
+        <v>12728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32172</v>
+        <v>31538</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01906143931655344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01195897115470758</v>
+        <v>0.01220425790632773</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0308478631947155</v>
+        <v>0.03024028572128098</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -2326,19 +2326,19 @@
         <v>25526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16862</v>
+        <v>17347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39822</v>
+        <v>37800</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01235921042696023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008164318504287539</v>
+        <v>0.008399008940573058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0192809577576325</v>
+        <v>0.01830201644241946</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1016784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1010219</v>
+        <v>1010763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020496</v>
+        <v>1020479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9944772819204416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9880558687185529</v>
+        <v>0.9885875712854574</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981075310938732</v>
+        <v>0.9980909723631606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>960</v>
@@ -2376,19 +2376,19 @@
         <v>1023034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010741</v>
+        <v>1011375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030441</v>
+        <v>1030185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9809385606834465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9691521368052843</v>
+        <v>0.9697597142787191</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9880410288452923</v>
+        <v>0.9877957420936723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1905</v>
@@ -2397,19 +2397,19 @@
         <v>2039818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2025522</v>
+        <v>2027544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2048482</v>
+        <v>2047997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876407895730398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9807190422423674</v>
+        <v>0.9816979835575805</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9918356814957124</v>
+        <v>0.9916009910594268</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>11308</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5475</v>
+        <v>5788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20830</v>
+        <v>22692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01488757757256144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007207811362922336</v>
+        <v>0.007620136468248179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02742394904673421</v>
+        <v>0.02987535458158072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2522,19 +2522,19 @@
         <v>7622</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3332</v>
+        <v>3066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14990</v>
+        <v>14375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009709565812424182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004244560653362314</v>
+        <v>0.003905293255988699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01909496327771306</v>
+        <v>0.0183114826850644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2543,19 +2543,19 @@
         <v>18930</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11572</v>
+        <v>12039</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31065</v>
+        <v>30740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01225589778322025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007492299335548752</v>
+        <v>0.007794708576127398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0201122920680303</v>
+        <v>0.01990218544907002</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>748244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738722</v>
+        <v>736860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754077</v>
+        <v>753764</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9851124224274386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9725760509532659</v>
+        <v>0.9701246454184196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9927921886370777</v>
+        <v>0.9923798635317519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>729</v>
@@ -2593,19 +2593,19 @@
         <v>777389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>770021</v>
+        <v>770636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>781679</v>
+        <v>781945</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9902904341875758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9809050367222869</v>
+        <v>0.9816885173149356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957554393466377</v>
+        <v>0.9960947067440111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1415</v>
@@ -2614,19 +2614,19 @@
         <v>1525633</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1513498</v>
+        <v>1513823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1532991</v>
+        <v>1532524</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9877441022167798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9798877079319697</v>
+        <v>0.98009781455093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9925077006644513</v>
+        <v>0.9922052914238726</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>12321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6160</v>
+        <v>6096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22688</v>
+        <v>22915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01314147853307175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006569871906455282</v>
+        <v>0.006501834707360031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0241982959513973</v>
+        <v>0.0244412322848956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2739,19 +2739,19 @@
         <v>14324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7227</v>
+        <v>7657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24783</v>
+        <v>25562</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01372293752564126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006924142178981591</v>
+        <v>0.007335887480504052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02374364745451377</v>
+        <v>0.02448958121192077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -2760,19 +2760,19 @@
         <v>26645</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17155</v>
+        <v>17043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40662</v>
+        <v>41964</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01344779287168779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008658345136233578</v>
+        <v>0.008601607984715836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02052251715651859</v>
+        <v>0.02117944221825412</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>925246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>914879</v>
+        <v>914652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931407</v>
+        <v>931471</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9868585214669282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9758017040486027</v>
+        <v>0.9755587677151043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9934301280935447</v>
+        <v>0.9934981652926397</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>947</v>
@@ -2810,19 +2810,19 @@
         <v>1029455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1018996</v>
+        <v>1018217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1036552</v>
+        <v>1036122</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9862770624743588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9762563525454867</v>
+        <v>0.9755104187880799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9930758578210187</v>
+        <v>0.9926641125194963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1869</v>
@@ -2831,19 +2831,19 @@
         <v>1954701</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1940684</v>
+        <v>1939382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1964191</v>
+        <v>1964303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865522071283122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9794774828434816</v>
+        <v>0.9788205577817461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9913416548637665</v>
+        <v>0.9913983920152843</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>33533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22944</v>
+        <v>22577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48204</v>
+        <v>47563</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00987919446310985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006759518122997071</v>
+        <v>0.006651449929770137</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01420110652100385</v>
+        <v>0.01401252084795766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -2956,19 +2956,19 @@
         <v>45950</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33571</v>
+        <v>33834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63768</v>
+        <v>63182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01296352619107343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009471319394297481</v>
+        <v>0.009545369857558448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01799057470135658</v>
+        <v>0.01782509733833459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -2977,19 +2977,19 @@
         <v>79483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62292</v>
+        <v>61890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99363</v>
+        <v>99156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01145474035855694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008977285655242695</v>
+        <v>0.008919238252881156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01431968030949249</v>
+        <v>0.01428990893959011</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3360817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3346146</v>
+        <v>3346787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3371406</v>
+        <v>3371773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9901208055368902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9857988934789962</v>
+        <v>0.9859874791520422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.993240481877003</v>
+        <v>0.9933485500702297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3298</v>
@@ -3027,19 +3027,19 @@
         <v>3498592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3480774</v>
+        <v>3481360</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3510971</v>
+        <v>3510708</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9870364738089266</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9820094252986434</v>
+        <v>0.9821749026616654</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9905286806057025</v>
+        <v>0.9904546301424415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6499</v>
@@ -3048,19 +3048,19 @@
         <v>6859409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6839529</v>
+        <v>6839736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6876600</v>
+        <v>6877002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.988545259641443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9856803196905078</v>
+        <v>0.98571009106041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9910227143447574</v>
+        <v>0.9910807617471189</v>
       </c>
     </row>
     <row r="18">
